--- a/Design Analysis & Algorithms/Quick Sort_Graphs.xlsx
+++ b/Design Analysis & Algorithms/Quick Sort_Graphs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sketc\Documents\Design Analysis &amp; Algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sketc\Desktop\Design Analysis &amp; Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686A927C-BC7D-49FE-A8C3-5B5C36F466CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5200864-8102-474D-9FC4-05761E0E7A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4C625503-D8C2-43D5-8081-9411B6DEBC96}"/>
   </bookViews>
@@ -109,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -121,9 +121,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4136,121 +4133,121 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>30</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>95</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f>B3*LOG(B3, 2)</f>
         <v>147.20671786825557</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>80</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>441</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f t="shared" ref="D4:D12" si="0">B4*LOG(B4, 2)</f>
         <v>505.75424759098894</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>150</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>892</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>1084.3228035743821</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>200</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1376</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>1528.7712379549448</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>250</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>2148</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>1991.4460711655217</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>300</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>2955</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>2468.6456071487646</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>350</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>3573</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>2957.9238891413152</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>400</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>4103</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>3457.5424759098901</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>450</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>4500</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>3966.2015360476667</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>500</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>4945</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>4482.8921423310439</v>
       </c>
